--- a/output/spreadsheets/12.04/waves.xlsx
+++ b/output/spreadsheets/12.04/waves.xlsx
@@ -1424,7 +1424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Infestor</t>
+          <t>Infestor</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1543,7 +1543,7 @@
         <v/>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="X14" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="n">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>605</v>
+        <v>695</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fatty</t>
+          <t>Blightbringer</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3320,7 +3320,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Experimental Hybrid</t>
+          <t>Phase Shifter</t>
         </is>
       </c>
       <c r="B31" t="n">
